--- a/results/141004-W31-1411-Anzio_Jam.xlsx
+++ b/results/141004-W31-1411-Anzio_Jam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B36FB-66F7-4435-B448-03F8C7014E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD320EE-5CA6-4445-875C-F28591C0A655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,42 +920,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -965,14 +929,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,17 +962,50 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1405,7 +1405,7 @@
   <dimension ref="B1:Q69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="Q38" sqref="Q37:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1507,10 +1507,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
@@ -1564,10 +1564,10 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47">
+      <c r="B13" s="56">
         <v>1</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1579,19 +1579,19 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="53">
+      <c r="G13" s="41">
         <v>7.5</v>
       </c>
-      <c r="I13" s="56">
+      <c r="I13" s="65">
         <v>125</v>
       </c>
-      <c r="J13" s="59">
+      <c r="J13" s="47">
         <v>4</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="62">
         <v>19</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="53">
         <v>148</v>
       </c>
       <c r="P13" s="24" t="s">
@@ -1602,8 +1602,8 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="8" t="s">
         <v>43</v>
       </c>
@@ -1613,11 +1613,11 @@
       <c r="F14" s="6">
         <v>2.5</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="45"/>
+      <c r="G14" s="42"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="54"/>
       <c r="P14" s="25" t="s">
         <v>1</v>
       </c>
@@ -1626,8 +1626,8 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -1635,11 +1635,11 @@
       <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="46"/>
+      <c r="G15" s="43"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="55"/>
       <c r="P15" s="24" t="s">
         <v>10</v>
       </c>
@@ -1648,10 +1648,10 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="47">
+      <c r="B16" s="56">
         <v>2</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1663,19 +1663,19 @@
       <c r="F16" s="9">
         <v>0.5</v>
       </c>
-      <c r="G16" s="53">
+      <c r="G16" s="41">
         <v>1.5</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="65">
         <v>100</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="47">
         <v>4</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="62">
         <v>17.5</v>
       </c>
-      <c r="L16" s="44">
+      <c r="L16" s="53">
         <v>121.5</v>
       </c>
       <c r="P16" s="25" t="s">
@@ -1686,8 +1686,8 @@
       </c>
     </row>
     <row r="17" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
-      <c r="C17" s="51"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
@@ -1697,11 +1697,11 @@
       <c r="F17" s="6">
         <v>1</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="45"/>
+      <c r="G17" s="42"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="54"/>
       <c r="P17" s="24" t="s">
         <v>19</v>
       </c>
@@ -1710,8 +1710,8 @@
       </c>
     </row>
     <row r="18" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="52"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -1719,11 +1719,11 @@
       <c r="F18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="55"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="46"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="55"/>
       <c r="P18" s="25" t="s">
         <v>11</v>
       </c>
@@ -1732,10 +1732,10 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47">
+      <c r="B19" s="56">
         <v>3</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1747,19 +1747,19 @@
       <c r="F19" s="9">
         <v>2.5</v>
       </c>
-      <c r="G19" s="53">
+      <c r="G19" s="41">
         <v>10</v>
       </c>
-      <c r="I19" s="56">
+      <c r="I19" s="65">
         <v>80</v>
       </c>
-      <c r="J19" s="59">
+      <c r="J19" s="47">
         <v>4</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="62">
         <v>7.5</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="53">
         <v>91.5</v>
       </c>
       <c r="P19" s="24" t="s">
@@ -1770,8 +1770,8 @@
       </c>
     </row>
     <row r="20" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
-      <c r="C20" s="51"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
@@ -1781,11 +1781,11 @@
       <c r="F20" s="6">
         <v>7.5</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="45"/>
+      <c r="G20" s="42"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="54"/>
       <c r="P20" s="25" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +1794,8 @@
       </c>
     </row>
     <row r="21" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
         <v>0</v>
@@ -1803,11 +1803,11 @@
       <c r="F21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="46"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="55"/>
       <c r="P21" s="24" t="s">
         <v>16</v>
       </c>
@@ -1816,10 +1816,10 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47">
+      <c r="B22" s="56">
         <v>4</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -1831,19 +1831,19 @@
       <c r="F22" s="9">
         <v>5</v>
       </c>
-      <c r="G22" s="53">
+      <c r="G22" s="41">
         <v>6</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="65">
         <v>70</v>
       </c>
-      <c r="J22" s="59">
+      <c r="J22" s="47">
         <v>4</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="62">
         <v>1.5</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="53">
         <v>75.5</v>
       </c>
       <c r="P22" s="25" t="s">
@@ -1854,8 +1854,8 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="48"/>
-      <c r="C23" s="51"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1865,11 +1865,11 @@
       <c r="F23" s="6">
         <v>1</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="45"/>
+      <c r="G23" s="42"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="54"/>
       <c r="P23" s="24" t="s">
         <v>26</v>
       </c>
@@ -1878,8 +1878,8 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
         <v>0</v>
@@ -1887,11 +1887,11 @@
       <c r="F24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="46"/>
+      <c r="G24" s="43"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="55"/>
       <c r="P24" s="25" t="s">
         <v>8</v>
       </c>
@@ -1900,10 +1900,10 @@
       </c>
     </row>
     <row r="25" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="47">
+      <c r="B25" s="56">
         <v>5</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1915,19 +1915,19 @@
       <c r="F25" s="9">
         <v>0</v>
       </c>
-      <c r="G25" s="53">
+      <c r="G25" s="41">
         <v>1</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="65">
         <v>60</v>
       </c>
-      <c r="J25" s="59">
+      <c r="J25" s="47">
         <v>4</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="62">
         <v>0.5</v>
       </c>
-      <c r="L25" s="44">
+      <c r="L25" s="53">
         <v>64.5</v>
       </c>
       <c r="P25" s="24" t="s">
@@ -1938,8 +1938,8 @@
       </c>
     </row>
     <row r="26" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="48"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="8" t="s">
         <v>19</v>
       </c>
@@ -1949,11 +1949,11 @@
       <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="45"/>
+      <c r="G26" s="42"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="54"/>
       <c r="P26" s="25" t="s">
         <v>20</v>
       </c>
@@ -1962,8 +1962,8 @@
       </c>
     </row>
     <row r="27" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="52"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
         <v>0</v>
@@ -1971,11 +1971,11 @@
       <c r="F27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="46"/>
+      <c r="G27" s="43"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="55"/>
       <c r="P27" s="24" t="s">
         <v>25</v>
       </c>
@@ -1984,10 +1984,10 @@
       </c>
     </row>
     <row r="28" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="47">
+      <c r="B28" s="56">
         <v>6</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -1999,19 +1999,19 @@
       <c r="F28" s="9">
         <v>0.5</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="41">
         <v>0.5</v>
       </c>
-      <c r="I28" s="56">
+      <c r="I28" s="65">
         <v>50</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="47">
         <v>4</v>
       </c>
-      <c r="K28" s="41">
-        <v>0</v>
-      </c>
-      <c r="L28" s="44">
+      <c r="K28" s="62">
+        <v>0</v>
+      </c>
+      <c r="L28" s="53">
         <v>54</v>
       </c>
       <c r="P28" s="25" t="s">
@@ -2022,8 +2022,8 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
-      <c r="C29" s="51"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
@@ -2033,11 +2033,11 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="45"/>
+      <c r="G29" s="42"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="54"/>
       <c r="P29" s="24" t="s">
         <v>28</v>
       </c>
@@ -2046,8 +2046,8 @@
       </c>
     </row>
     <row r="30" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>0</v>
@@ -2055,11 +2055,11 @@
       <c r="F30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="46"/>
+      <c r="G30" s="43"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="55"/>
       <c r="P30" s="25" t="s">
         <v>22</v>
       </c>
@@ -2080,10 +2080,10 @@
         <v>42</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="21"/>
@@ -2125,10 +2125,10 @@
       </c>
     </row>
     <row r="34" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="47">
+      <c r="B34" s="56">
         <v>1</v>
       </c>
-      <c r="C34" s="50" t="s">
+      <c r="C34" s="59" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -2140,17 +2140,17 @@
       <c r="F34" s="9">
         <v>0.5</v>
       </c>
-      <c r="G34" s="53">
+      <c r="G34" s="41">
         <v>1.5</v>
       </c>
-      <c r="I34" s="65"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="48"/>
-      <c r="C35" s="51"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="60"/>
       <c r="D35" s="13" t="s">
         <v>28</v>
       </c>
@@ -2160,15 +2160,15 @@
       <c r="F35" s="6">
         <v>1</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="45"/>
+      <c r="G35" s="42"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="54"/>
     </row>
     <row r="36" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
-      <c r="C36" s="52"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="12"/>
       <c r="E36" s="4" t="s">
         <v>0</v>
@@ -2176,17 +2176,17 @@
       <c r="F36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="46"/>
+      <c r="G36" s="43"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="55"/>
     </row>
     <row r="37" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="47">
+      <c r="B37" s="56">
         <v>2</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="59" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -2198,17 +2198,17 @@
       <c r="F37" s="9">
         <v>5</v>
       </c>
-      <c r="G37" s="53">
+      <c r="G37" s="41">
         <v>7.5</v>
       </c>
-      <c r="I37" s="65"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="53"/>
     </row>
     <row r="38" spans="2:17" s="15" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="48"/>
-      <c r="C38" s="51"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="13" t="s">
         <v>25</v>
       </c>
@@ -2218,12 +2218,12 @@
       <c r="F38" s="6">
         <v>2.5</v>
       </c>
-      <c r="G38" s="54"/>
+      <c r="G38" s="42"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="54"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -2231,8 +2231,8 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
-      <c r="C39" s="52"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="61"/>
       <c r="D39" s="12"/>
       <c r="E39" s="4" t="s">
         <v>0</v>
@@ -2240,17 +2240,17 @@
       <c r="F39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="55"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="46"/>
+      <c r="G39" s="43"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="47">
+      <c r="B40" s="56">
         <v>3</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -2262,17 +2262,17 @@
       <c r="F40" s="9">
         <v>5</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="41">
         <v>6</v>
       </c>
-      <c r="I40" s="65"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="53"/>
     </row>
     <row r="41" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="48"/>
-      <c r="C41" s="51"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="13" t="s">
         <v>22</v>
       </c>
@@ -2282,15 +2282,15 @@
       <c r="F41" s="6">
         <v>1</v>
       </c>
-      <c r="G41" s="54"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="45"/>
+      <c r="G41" s="42"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="54"/>
     </row>
     <row r="42" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="52"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="61"/>
       <c r="D42" s="12"/>
       <c r="E42" s="4" t="s">
         <v>0</v>
@@ -2298,17 +2298,17 @@
       <c r="F42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="55"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="46"/>
+      <c r="G42" s="43"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="55"/>
     </row>
     <row r="43" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47">
+      <c r="B43" s="56">
         <v>4</v>
       </c>
-      <c r="C43" s="50" t="s">
+      <c r="C43" s="59" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -2320,17 +2320,17 @@
       <c r="F43" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="53">
+      <c r="G43" s="41">
         <v>1</v>
       </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="59"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="53"/>
     </row>
     <row r="44" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="48"/>
-      <c r="C44" s="51"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="13" t="s">
         <v>19</v>
       </c>
@@ -2340,15 +2340,15 @@
       <c r="F44" s="6">
         <v>1</v>
       </c>
-      <c r="G44" s="54"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="45"/>
+      <c r="G44" s="42"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="54"/>
     </row>
     <row r="45" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
-      <c r="C45" s="52"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="61"/>
       <c r="D45" s="12"/>
       <c r="E45" s="4" t="s">
         <v>0</v>
@@ -2356,17 +2356,17 @@
       <c r="F45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="64"/>
-      <c r="L45" s="46"/>
+      <c r="G45" s="43"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47">
+      <c r="B46" s="56">
         <v>5</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="59" t="s">
         <v>18</v>
       </c>
       <c r="D46" s="14" t="s">
@@ -2378,17 +2378,17 @@
       <c r="F46" s="9">
         <v>2.5</v>
       </c>
-      <c r="G46" s="53">
+      <c r="G46" s="41">
         <v>10</v>
       </c>
-      <c r="I46" s="65"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="53"/>
     </row>
     <row r="47" spans="2:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="48"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="60"/>
       <c r="D47" s="13" t="s">
         <v>16</v>
       </c>
@@ -2398,15 +2398,15 @@
       <c r="F47" s="6">
         <v>7.5</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="45"/>
+      <c r="G47" s="42"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="54"/>
     </row>
     <row r="48" spans="2:17" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="52"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="61"/>
       <c r="D48" s="12"/>
       <c r="E48" s="4" t="s">
         <v>0</v>
@@ -2414,17 +2414,17 @@
       <c r="F48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="55"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="64"/>
-      <c r="L48" s="46"/>
+      <c r="G48" s="43"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="47">
+      <c r="B49" s="56">
         <v>6</v>
       </c>
-      <c r="C49" s="50" t="s">
+      <c r="C49" s="59" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -2436,17 +2436,17 @@
       <c r="F49" s="9">
         <v>0.5</v>
       </c>
-      <c r="G49" s="53">
+      <c r="G49" s="41">
         <v>0.5</v>
       </c>
-      <c r="I49" s="65"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="53"/>
     </row>
     <row r="50" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="48"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="60"/>
       <c r="D50" s="13" t="s">
         <v>13</v>
       </c>
@@ -2456,15 +2456,15 @@
       <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="45"/>
+      <c r="G50" s="42"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="54"/>
     </row>
     <row r="51" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="49"/>
-      <c r="C51" s="52"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="61"/>
       <c r="D51" s="12"/>
       <c r="E51" s="4" t="s">
         <v>0</v>
@@ -2472,17 +2472,17 @@
       <c r="F51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="55"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="64"/>
-      <c r="L51" s="46"/>
+      <c r="G51" s="43"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="55"/>
     </row>
     <row r="52" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="47">
+      <c r="B52" s="56">
         <v>7</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="C52" s="59" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -2494,23 +2494,23 @@
       <c r="F52" s="9">
         <v>0</v>
       </c>
-      <c r="G52" s="53">
-        <v>0</v>
-      </c>
-      <c r="I52" s="65">
+      <c r="G52" s="41">
+        <v>0</v>
+      </c>
+      <c r="I52" s="44">
         <v>45</v>
       </c>
-      <c r="J52" s="59">
+      <c r="J52" s="47">
         <v>4</v>
       </c>
-      <c r="K52" s="62"/>
-      <c r="L52" s="44">
+      <c r="K52" s="50"/>
+      <c r="L52" s="53">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="48"/>
-      <c r="C53" s="51"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="8" t="s">
         <v>10</v>
       </c>
@@ -2520,15 +2520,15 @@
       <c r="F53" s="6">
         <v>0</v>
       </c>
-      <c r="G53" s="54"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="45"/>
+      <c r="G53" s="42"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="54"/>
     </row>
     <row r="54" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
-      <c r="C54" s="52"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="61"/>
       <c r="D54" s="5"/>
       <c r="E54" s="4" t="s">
         <v>0</v>
@@ -2536,17 +2536,17 @@
       <c r="F54" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G54" s="55"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="46"/>
+      <c r="G54" s="43"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="55"/>
     </row>
     <row r="55" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="47">
+      <c r="B55" s="56">
         <v>8</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="59" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -2558,23 +2558,23 @@
       <c r="F55" s="9">
         <v>0.5</v>
       </c>
-      <c r="G55" s="53">
+      <c r="G55" s="41">
         <v>1</v>
       </c>
-      <c r="I55" s="65">
+      <c r="I55" s="44">
         <v>40</v>
       </c>
-      <c r="J55" s="59">
+      <c r="J55" s="47">
         <v>3</v>
       </c>
-      <c r="K55" s="62"/>
-      <c r="L55" s="44">
+      <c r="K55" s="50"/>
+      <c r="L55" s="53">
         <v>43</v>
       </c>
     </row>
     <row r="56" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="48"/>
-      <c r="C56" s="51"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="8" t="s">
         <v>7</v>
       </c>
@@ -2584,15 +2584,15 @@
       <c r="F56" s="6">
         <v>0.5</v>
       </c>
-      <c r="G56" s="54"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="45"/>
+      <c r="G56" s="42"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="54"/>
     </row>
     <row r="57" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-      <c r="C57" s="52"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="61"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
         <v>0</v>
@@ -2600,17 +2600,17 @@
       <c r="F57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="55"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="61"/>
-      <c r="K57" s="64"/>
-      <c r="L57" s="46"/>
+      <c r="G57" s="43"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="55"/>
     </row>
     <row r="58" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="47">
+      <c r="B58" s="56">
         <v>9</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="59" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -2622,23 +2622,23 @@
       <c r="F58" s="9">
         <v>1</v>
       </c>
-      <c r="G58" s="53">
+      <c r="G58" s="41">
         <v>1.5</v>
       </c>
-      <c r="I58" s="65">
+      <c r="I58" s="44">
         <v>35</v>
       </c>
-      <c r="J58" s="59">
+      <c r="J58" s="47">
         <v>1.5</v>
       </c>
-      <c r="K58" s="62"/>
-      <c r="L58" s="44">
+      <c r="K58" s="50"/>
+      <c r="L58" s="53">
         <v>36.5</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="48"/>
-      <c r="C59" s="51"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="8" t="s">
         <v>4</v>
       </c>
@@ -2648,15 +2648,15 @@
       <c r="F59" s="6">
         <v>0.5</v>
       </c>
-      <c r="G59" s="54"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="63"/>
-      <c r="L59" s="45"/>
+      <c r="G59" s="42"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="54"/>
     </row>
     <row r="60" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
-      <c r="C60" s="52"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="5"/>
       <c r="E60" s="4" t="s">
         <v>0</v>
@@ -2664,17 +2664,17 @@
       <c r="F60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="64"/>
-      <c r="L60" s="46"/>
+      <c r="G60" s="43"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="49"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="55"/>
     </row>
     <row r="61" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="47">
+      <c r="B61" s="56">
         <v>10</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -2686,23 +2686,23 @@
       <c r="F61" s="9">
         <v>1</v>
       </c>
-      <c r="G61" s="53">
+      <c r="G61" s="41">
         <v>1.5</v>
       </c>
-      <c r="I61" s="65">
+      <c r="I61" s="44">
         <v>30</v>
       </c>
-      <c r="J61" s="59">
-        <v>0</v>
-      </c>
-      <c r="K61" s="62"/>
-      <c r="L61" s="44">
+      <c r="J61" s="47">
+        <v>0</v>
+      </c>
+      <c r="K61" s="50"/>
+      <c r="L61" s="53">
         <v>30</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="60"/>
       <c r="D62" s="8" t="s">
         <v>1</v>
       </c>
@@ -2712,15 +2712,15 @@
       <c r="F62" s="6">
         <v>0.5</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="63"/>
-      <c r="L62" s="45"/>
+      <c r="G62" s="42"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="54"/>
     </row>
     <row r="63" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
-      <c r="C63" s="52"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="5"/>
       <c r="E63" s="4" t="s">
         <v>0</v>
@@ -2728,11 +2728,11 @@
       <c r="F63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="55"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="64"/>
-      <c r="L63" s="46"/>
+      <c r="G63" s="43"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="49"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="55"/>
     </row>
     <row r="64" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2742,20 +2742,80 @@
     <row r="69" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="K58:K60"/>
-    <mergeCell ref="L58:L60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L25:L27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
     <mergeCell ref="K55:K57"/>
     <mergeCell ref="L55:L57"/>
     <mergeCell ref="B52:B54"/>
@@ -2780,80 +2840,20 @@
     <mergeCell ref="G49:G51"/>
     <mergeCell ref="I49:I51"/>
     <mergeCell ref="J49:J51"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="G28:G30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="K58:K60"/>
+    <mergeCell ref="L58:L60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2862,7 +2862,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B32" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11 D32" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D11:E11 D32:E32" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G32" xr:uid="{00000000-0002-0000-0000-000003000000}">
